--- a/ChnSentiCorp/10-fold/result/结果.xlsx
+++ b/ChnSentiCorp/10-fold/result/结果.xlsx
@@ -19,9 +19,41 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>10折交叉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>precision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>avg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100个节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150个节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>128维词向量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100维词向量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -29,7 +61,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -42,6 +74,13 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -65,8 +104,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -347,73 +390,412 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>0.91830000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>0.90169999999999995</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>0.89829999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>0.89670000000000005</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>0.9133</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>0.89170000000000005</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>0.88170000000000004</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>0.90669999999999995</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>0.90500000000000003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <f>AVERAGE(A2:A11)</f>
-        <v>0.90134000000000003</v>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.9234</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.91259999999999997</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.91720000000000002</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.90739999999999998</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.91510000000000002</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.91110000000000002</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.88719999999999999</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.91390000000000005</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.89959999999999996</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.9113</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.87370000000000003</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.89180000000000004</v>
+      </c>
+      <c r="F6" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.91059999999999997</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.90549999999999997</v>
+      </c>
+      <c r="F7" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.89739999999999998</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.90659999999999996</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.90180000000000005</v>
+      </c>
+      <c r="F8" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.88739999999999997</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.90980000000000005</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.89810000000000001</v>
+      </c>
+      <c r="F9" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.95340000000000003</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.83040000000000003</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.8871</v>
+      </c>
+      <c r="F10" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.9052</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.88119999999999998</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.89290000000000003</v>
+      </c>
+      <c r="F11" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.91120000000000001</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.89739999999999998</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.90390000000000004</v>
+      </c>
+      <c r="F12" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="2">
+        <f t="shared" ref="B13:D13" si="0">AVERAGE(B3:B12)</f>
+        <v>0.90944999999999998</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" si="0"/>
+        <v>0.89446999999999988</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="0"/>
+        <v>0.90090000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>0.90329999999999999</v>
+      </c>
+      <c r="C17">
+        <v>0.93110000000000004</v>
+      </c>
+      <c r="D17">
+        <v>0.91569999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>0.88319999999999999</v>
+      </c>
+      <c r="C18">
+        <v>0.90029999999999999</v>
+      </c>
+      <c r="D18">
+        <v>0.89139999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>0.8992</v>
+      </c>
+      <c r="C19">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="D19">
+        <v>0.89510000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>0.90880000000000005</v>
+      </c>
+      <c r="C20">
+        <v>0.87119999999999997</v>
+      </c>
+      <c r="D20">
+        <v>0.88890000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>5</v>
+      </c>
+      <c r="B21">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="C21">
+        <v>0.88890000000000002</v>
+      </c>
+      <c r="D21">
+        <v>0.90190000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <v>0.92859999999999998</v>
+      </c>
+      <c r="C22">
+        <v>0.8911</v>
+      </c>
+      <c r="D22">
+        <v>0.90029999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>7</v>
+      </c>
+      <c r="B23">
+        <v>0.89290000000000003</v>
+      </c>
+      <c r="C23">
+        <v>0.86670000000000003</v>
+      </c>
+      <c r="D23">
+        <v>0.87919999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>8</v>
+      </c>
+      <c r="B24">
+        <v>0.93210000000000004</v>
+      </c>
+      <c r="C24">
+        <v>0.86050000000000004</v>
+      </c>
+      <c r="D24">
+        <v>0.89459999999999995</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>9</v>
+      </c>
+      <c r="B25">
+        <v>0.88229999999999997</v>
+      </c>
+      <c r="C25">
+        <v>0.90820000000000001</v>
+      </c>
+      <c r="D25">
+        <v>0.89500000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>10</v>
+      </c>
+      <c r="B26">
+        <v>0.9345</v>
+      </c>
+      <c r="C26">
+        <v>0.89119999999999999</v>
+      </c>
+      <c r="D26">
+        <v>0.91210000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="2">
+        <f t="shared" ref="B27:D27" si="1">AVERAGE(B17:B26)</f>
+        <v>0.90809000000000017</v>
+      </c>
+      <c r="C27" s="2">
+        <f t="shared" si="1"/>
+        <v>0.89022000000000001</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" si="1"/>
+        <v>0.89742</v>
       </c>
     </row>
   </sheetData>

--- a/ChnSentiCorp/10-fold/result/结果.xlsx
+++ b/ChnSentiCorp/10-fold/result/结果.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="9">
   <si>
     <t>10折交叉</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -393,7 +393,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -451,6 +451,15 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
+      <c r="G3" s="1">
+        <v>0.91930000000000001</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.91679999999999995</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
@@ -468,6 +477,15 @@
       <c r="F4" s="1">
         <v>2</v>
       </c>
+      <c r="G4" s="1">
+        <v>0.90459999999999996</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.91259999999999997</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
@@ -485,6 +503,15 @@
       <c r="F5" s="1">
         <v>3</v>
       </c>
+      <c r="G5" s="1">
+        <v>0.89549999999999996</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.90980000000000005</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.90139999999999998</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
@@ -502,6 +529,15 @@
       <c r="F6" s="1">
         <v>4</v>
       </c>
+      <c r="G6" s="1">
+        <v>0.88449999999999995</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.88949999999999996</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
@@ -519,6 +555,15 @@
       <c r="F7" s="1">
         <v>5</v>
       </c>
+      <c r="G7" s="1">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.93430000000000002</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.92320000000000002</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
@@ -536,6 +581,15 @@
       <c r="F8" s="1">
         <v>6</v>
       </c>
+      <c r="G8" s="1">
+        <v>0.90069999999999995</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.90669999999999995</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.90359999999999996</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
@@ -553,6 +607,15 @@
       <c r="F9" s="1">
         <v>7</v>
       </c>
+      <c r="G9" s="1">
+        <v>0.89990000000000003</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.9032</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.90059999999999996</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
@@ -570,6 +633,15 @@
       <c r="F10" s="1">
         <v>8</v>
       </c>
+      <c r="G10" s="1">
+        <v>0.93130000000000002</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.87819999999999998</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.90300000000000002</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
@@ -587,6 +659,15 @@
       <c r="F11" s="1">
         <v>9</v>
       </c>
+      <c r="G11" s="1">
+        <v>0.9012</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.89480000000000004</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.89780000000000004</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
@@ -604,6 +685,15 @@
       <c r="F12" s="1">
         <v>10</v>
       </c>
+      <c r="G12" s="1">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.89090000000000003</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.91210000000000002</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -621,6 +711,21 @@
         <f t="shared" si="0"/>
         <v>0.90090000000000003</v>
       </c>
+      <c r="F13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" ref="G13:I13" si="1">AVERAGE(G3:G12)</f>
+        <v>0.90850000000000009</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.90488999999999997</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.90606000000000009</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
@@ -786,15 +891,15 @@
         <v>4</v>
       </c>
       <c r="B27" s="2">
-        <f t="shared" ref="B27:D27" si="1">AVERAGE(B17:B26)</f>
+        <f t="shared" ref="B27:D27" si="2">AVERAGE(B17:B26)</f>
         <v>0.90809000000000017</v>
       </c>
       <c r="C27" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.89022000000000001</v>
       </c>
       <c r="D27" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.89742</v>
       </c>
     </row>

--- a/ChnSentiCorp/10-fold/result/结果.xlsx
+++ b/ChnSentiCorp/10-fold/result/结果.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="13">
   <si>
     <t>10折交叉</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,6 +54,22 @@
   </si>
   <si>
     <t>100维词向量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100维词向量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxlen=50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxlen=75</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -104,12 +120,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -390,13 +409,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -746,7 +768,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -760,7 +782,7 @@
         <v>0.91569999999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>2</v>
       </c>
@@ -774,7 +796,7 @@
         <v>0.89139999999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>3</v>
       </c>
@@ -788,7 +810,7 @@
         <v>0.89510000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>4</v>
       </c>
@@ -802,7 +824,7 @@
         <v>0.88890000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>5</v>
       </c>
@@ -816,7 +838,7 @@
         <v>0.90190000000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>6</v>
       </c>
@@ -830,7 +852,7 @@
         <v>0.90029999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>7</v>
       </c>
@@ -844,7 +866,7 @@
         <v>0.87919999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>8</v>
       </c>
@@ -858,7 +880,7 @@
         <v>0.89459999999999995</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>9</v>
       </c>
@@ -872,7 +894,7 @@
         <v>0.89500000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>10</v>
       </c>
@@ -886,7 +908,7 @@
         <v>0.91210000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>4</v>
       </c>
@@ -901,6 +923,238 @@
       <c r="D27" s="2">
         <f t="shared" si="2"/>
         <v>0.89742</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>0.92459999999999998</v>
+      </c>
+      <c r="C32">
+        <v>0.92379999999999995</v>
+      </c>
+      <c r="D32">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>2</v>
+      </c>
+      <c r="B33">
+        <v>0.94689999999999996</v>
+      </c>
+      <c r="C33">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="D33">
+        <v>0.9052</v>
+      </c>
+      <c r="F33" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>3</v>
+      </c>
+      <c r="B34">
+        <v>0.92659999999999998</v>
+      </c>
+      <c r="C34">
+        <v>0.90890000000000004</v>
+      </c>
+      <c r="D34">
+        <v>0.91739999999999999</v>
+      </c>
+      <c r="F34" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>4</v>
+      </c>
+      <c r="B35">
+        <v>0.90080000000000005</v>
+      </c>
+      <c r="C35">
+        <v>0.87670000000000003</v>
+      </c>
+      <c r="D35">
+        <v>0.88829999999999998</v>
+      </c>
+      <c r="F35" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>5</v>
+      </c>
+      <c r="B36">
+        <v>0.89129999999999998</v>
+      </c>
+      <c r="C36">
+        <v>0.9002</v>
+      </c>
+      <c r="D36">
+        <v>0.89559999999999995</v>
+      </c>
+      <c r="F36" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>6</v>
+      </c>
+      <c r="B37">
+        <v>0.91769999999999996</v>
+      </c>
+      <c r="C37">
+        <v>0.84570000000000001</v>
+      </c>
+      <c r="D37">
+        <v>0.87960000000000005</v>
+      </c>
+      <c r="F37" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>7</v>
+      </c>
+      <c r="B38">
+        <v>0.8226</v>
+      </c>
+      <c r="C38">
+        <v>0.8589</v>
+      </c>
+      <c r="D38">
+        <v>0.87039999999999995</v>
+      </c>
+      <c r="F38" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>8</v>
+      </c>
+      <c r="B39">
+        <v>0.92989999999999995</v>
+      </c>
+      <c r="C39">
+        <v>0.90280000000000005</v>
+      </c>
+      <c r="D39">
+        <v>0.91510000000000002</v>
+      </c>
+      <c r="F39" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>9</v>
+      </c>
+      <c r="B40">
+        <v>0.92649999999999999</v>
+      </c>
+      <c r="C40">
+        <v>0.89370000000000005</v>
+      </c>
+      <c r="D40">
+        <v>0.90920000000000001</v>
+      </c>
+      <c r="F40" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>10</v>
+      </c>
+      <c r="B41">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="C41">
+        <v>0.89159999999999995</v>
+      </c>
+      <c r="D41">
+        <v>0.89590000000000003</v>
+      </c>
+      <c r="F41" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="2">
+        <f t="shared" ref="B42:D42" si="3">AVERAGE(B32:B41)</f>
+        <v>0.9087900000000001</v>
+      </c>
+      <c r="C42" s="2">
+        <f t="shared" si="3"/>
+        <v>0.88702999999999999</v>
+      </c>
+      <c r="D42" s="2">
+        <f t="shared" si="3"/>
+        <v>0.89996999999999994</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" s="2">
+        <v>818</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/ChnSentiCorp/10-fold/result/结果.xlsx
+++ b/ChnSentiCorp/10-fold/result/结果.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="17">
   <si>
     <t>10折交叉</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,6 +66,22 @@
   </si>
   <si>
     <t>用时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxlen=25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxlen=100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxlen=125</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxlen=150</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -409,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:AC43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView tabSelected="1" topLeftCell="G28" workbookViewId="0">
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -768,7 +784,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -782,7 +798,7 @@
         <v>0.91569999999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>2</v>
       </c>
@@ -796,7 +812,7 @@
         <v>0.89139999999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>3</v>
       </c>
@@ -810,7 +826,7 @@
         <v>0.89510000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>4</v>
       </c>
@@ -824,7 +840,7 @@
         <v>0.88890000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>5</v>
       </c>
@@ -838,7 +854,7 @@
         <v>0.90190000000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>6</v>
       </c>
@@ -852,7 +868,7 @@
         <v>0.90029999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>7</v>
       </c>
@@ -866,7 +882,7 @@
         <v>0.87919999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>8</v>
       </c>
@@ -880,7 +896,7 @@
         <v>0.89459999999999995</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>9</v>
       </c>
@@ -894,7 +910,7 @@
         <v>0.89500000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>10</v>
       </c>
@@ -908,7 +924,7 @@
         <v>0.91210000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>4</v>
       </c>
@@ -925,18 +941,30 @@
         <v>0.89742</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>9</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="V30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA30" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>2</v>
       </c>
@@ -955,206 +983,727 @@
       <c r="I31" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="W31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC31" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>1</v>
       </c>
       <c r="B32">
-        <v>0.92459999999999998</v>
+        <v>0.89580000000000004</v>
       </c>
       <c r="C32">
-        <v>0.92379999999999995</v>
+        <v>0.8579</v>
       </c>
       <c r="D32">
-        <v>0.92300000000000004</v>
+        <v>0.87570000000000003</v>
       </c>
       <c r="F32" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G32">
+        <v>0.92459999999999998</v>
+      </c>
+      <c r="H32">
+        <v>0.92379999999999995</v>
+      </c>
+      <c r="I32">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="K32" s="1">
+        <v>1</v>
+      </c>
+      <c r="P32" s="1">
+        <v>1</v>
+      </c>
+      <c r="U32" s="1">
+        <v>1</v>
+      </c>
+      <c r="V32">
+        <v>0.9113</v>
+      </c>
+      <c r="W32">
+        <v>0.93079999999999996</v>
+      </c>
+      <c r="X32">
+        <v>0.92069999999999996</v>
+      </c>
+      <c r="Z32" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA32">
+        <v>0.90759999999999996</v>
+      </c>
+      <c r="AB32">
+        <v>0.88480000000000003</v>
+      </c>
+      <c r="AC32">
+        <v>0.89570000000000005</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>2</v>
       </c>
       <c r="B33">
-        <v>0.94689999999999996</v>
+        <v>0.87380000000000002</v>
       </c>
       <c r="C33">
-        <v>0.86799999999999999</v>
+        <v>0.85060000000000002</v>
       </c>
       <c r="D33">
-        <v>0.9052</v>
+        <v>0.86109999999999998</v>
       </c>
       <c r="F33" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G33">
+        <v>0.94689999999999996</v>
+      </c>
+      <c r="H33">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="I33">
+        <v>0.9052</v>
+      </c>
+      <c r="K33" s="1">
+        <v>2</v>
+      </c>
+      <c r="P33" s="1">
+        <v>2</v>
+      </c>
+      <c r="U33" s="1">
+        <v>2</v>
+      </c>
+      <c r="V33">
+        <v>0.89570000000000005</v>
+      </c>
+      <c r="W33">
+        <v>0.90990000000000004</v>
+      </c>
+      <c r="X33">
+        <v>0.90210000000000001</v>
+      </c>
+      <c r="Z33" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA33">
+        <v>0.88680000000000003</v>
+      </c>
+      <c r="AB33">
+        <v>0.90790000000000004</v>
+      </c>
+      <c r="AC33">
+        <v>0.89700000000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>3</v>
       </c>
       <c r="B34">
-        <v>0.92659999999999998</v>
+        <v>0.91739999999999999</v>
       </c>
       <c r="C34">
-        <v>0.90890000000000004</v>
+        <v>0.87909999999999999</v>
       </c>
       <c r="D34">
-        <v>0.91739999999999999</v>
+        <v>0.89710000000000001</v>
       </c>
       <c r="F34" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G34">
+        <v>0.92659999999999998</v>
+      </c>
+      <c r="H34">
+        <v>0.90890000000000004</v>
+      </c>
+      <c r="I34">
+        <v>0.91739999999999999</v>
+      </c>
+      <c r="K34" s="1">
+        <v>3</v>
+      </c>
+      <c r="P34" s="1">
+        <v>3</v>
+      </c>
+      <c r="U34" s="1">
+        <v>3</v>
+      </c>
+      <c r="V34">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="W34">
+        <v>0.89429999999999998</v>
+      </c>
+      <c r="X34">
+        <v>0.89890000000000003</v>
+      </c>
+      <c r="Z34" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA34">
+        <v>0.92049999999999998</v>
+      </c>
+      <c r="AB34">
+        <v>0.88539999999999996</v>
+      </c>
+      <c r="AC34">
+        <v>0.90229999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>4</v>
       </c>
       <c r="B35">
-        <v>0.90080000000000005</v>
+        <v>0.87350000000000005</v>
       </c>
       <c r="C35">
-        <v>0.87670000000000003</v>
+        <v>0.88049999999999995</v>
       </c>
       <c r="D35">
-        <v>0.88829999999999998</v>
+        <v>0.876</v>
       </c>
       <c r="F35" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G35">
+        <v>0.90080000000000005</v>
+      </c>
+      <c r="H35">
+        <v>0.87670000000000003</v>
+      </c>
+      <c r="I35">
+        <v>0.88829999999999998</v>
+      </c>
+      <c r="K35" s="1">
+        <v>4</v>
+      </c>
+      <c r="P35" s="1">
+        <v>4</v>
+      </c>
+      <c r="U35" s="1">
+        <v>4</v>
+      </c>
+      <c r="V35">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="W35">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="X35">
+        <v>0.89839999999999998</v>
+      </c>
+      <c r="Z35" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA35">
+        <v>0.88249999999999995</v>
+      </c>
+      <c r="AB35">
+        <v>0.91679999999999995</v>
+      </c>
+      <c r="AC35">
+        <v>0.89849999999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>5</v>
       </c>
       <c r="B36">
-        <v>0.89129999999999998</v>
+        <v>0.90229999999999999</v>
       </c>
       <c r="C36">
-        <v>0.9002</v>
+        <v>0.85399999999999998</v>
       </c>
       <c r="D36">
-        <v>0.89559999999999995</v>
+        <v>0.87619999999999998</v>
       </c>
       <c r="F36" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G36">
+        <v>0.89129999999999998</v>
+      </c>
+      <c r="H36">
+        <v>0.9002</v>
+      </c>
+      <c r="I36">
+        <v>0.89559999999999995</v>
+      </c>
+      <c r="K36" s="1">
+        <v>5</v>
+      </c>
+      <c r="P36" s="1">
+        <v>5</v>
+      </c>
+      <c r="U36" s="1">
+        <v>5</v>
+      </c>
+      <c r="V36">
+        <v>0.9264</v>
+      </c>
+      <c r="W36">
+        <v>0.88919999999999999</v>
+      </c>
+      <c r="X36">
+        <v>0.90690000000000004</v>
+      </c>
+      <c r="Z36" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA36">
+        <v>0.91549999999999998</v>
+      </c>
+      <c r="AB36">
+        <v>0.88249999999999995</v>
+      </c>
+      <c r="AC36">
+        <v>0.89780000000000004</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>6</v>
       </c>
       <c r="B37">
-        <v>0.91769999999999996</v>
+        <v>0.91420000000000001</v>
       </c>
       <c r="C37">
-        <v>0.84570000000000001</v>
+        <v>0.87839999999999996</v>
       </c>
       <c r="D37">
-        <v>0.87960000000000005</v>
+        <v>0.89549999999999996</v>
       </c>
       <c r="F37" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G37">
+        <v>0.91769999999999996</v>
+      </c>
+      <c r="H37">
+        <v>0.84570000000000001</v>
+      </c>
+      <c r="I37">
+        <v>0.87960000000000005</v>
+      </c>
+      <c r="K37" s="1">
+        <v>6</v>
+      </c>
+      <c r="P37" s="1">
+        <v>6</v>
+      </c>
+      <c r="U37" s="1">
+        <v>6</v>
+      </c>
+      <c r="V37">
+        <v>0.87350000000000005</v>
+      </c>
+      <c r="W37">
+        <v>0.93089999999999995</v>
+      </c>
+      <c r="X37">
+        <v>0.90049999999999997</v>
+      </c>
+      <c r="Z37" s="1">
+        <v>6</v>
+      </c>
+      <c r="AA37">
+        <v>0.91259999999999997</v>
+      </c>
+      <c r="AB37">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="AC37">
+        <v>0.90510000000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>7</v>
       </c>
       <c r="B38">
-        <v>0.8226</v>
+        <v>0.87309999999999999</v>
       </c>
       <c r="C38">
-        <v>0.8589</v>
+        <v>0.92679999999999996</v>
       </c>
       <c r="D38">
-        <v>0.87039999999999995</v>
+        <v>0.89829999999999999</v>
       </c>
       <c r="F38" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G38">
+        <v>0.8226</v>
+      </c>
+      <c r="H38">
+        <v>0.8589</v>
+      </c>
+      <c r="I38">
+        <v>0.87039999999999995</v>
+      </c>
+      <c r="K38" s="1">
+        <v>7</v>
+      </c>
+      <c r="P38" s="1">
+        <v>7</v>
+      </c>
+      <c r="U38" s="1">
+        <v>7</v>
+      </c>
+      <c r="V38">
+        <v>0.89659999999999995</v>
+      </c>
+      <c r="W38">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="X38">
+        <v>0.88780000000000003</v>
+      </c>
+      <c r="Z38" s="1">
+        <v>7</v>
+      </c>
+      <c r="AA38">
+        <v>0.90029999999999999</v>
+      </c>
+      <c r="AB38">
+        <v>0.91149999999999998</v>
+      </c>
+      <c r="AC38">
+        <v>0.90510000000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>8</v>
       </c>
       <c r="B39">
-        <v>0.92989999999999995</v>
+        <v>0.90059999999999996</v>
       </c>
       <c r="C39">
-        <v>0.90280000000000005</v>
+        <v>0.88959999999999995</v>
       </c>
       <c r="D39">
-        <v>0.91510000000000002</v>
+        <v>0.89439999999999997</v>
       </c>
       <c r="F39" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G39">
+        <v>0.92989999999999995</v>
+      </c>
+      <c r="H39">
+        <v>0.90280000000000005</v>
+      </c>
+      <c r="I39">
+        <v>0.91510000000000002</v>
+      </c>
+      <c r="K39" s="1">
+        <v>8</v>
+      </c>
+      <c r="P39" s="1">
+        <v>8</v>
+      </c>
+      <c r="U39" s="1">
+        <v>8</v>
+      </c>
+      <c r="V39">
+        <v>0.89080000000000004</v>
+      </c>
+      <c r="W39">
+        <v>0.91120000000000001</v>
+      </c>
+      <c r="X39">
+        <v>0.90049999999999997</v>
+      </c>
+      <c r="Z39" s="1">
+        <v>8</v>
+      </c>
+      <c r="AA39">
+        <v>0.94279999999999997</v>
+      </c>
+      <c r="AB39">
+        <v>0.877</v>
+      </c>
+      <c r="AC39">
+        <v>0.90810000000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>9</v>
       </c>
       <c r="B40">
-        <v>0.92649999999999999</v>
+        <v>0.878</v>
       </c>
       <c r="C40">
-        <v>0.89370000000000005</v>
+        <v>0.88319999999999999</v>
       </c>
       <c r="D40">
-        <v>0.90920000000000001</v>
+        <v>0.87790000000000001</v>
       </c>
       <c r="F40" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G40">
+        <v>0.92649999999999999</v>
+      </c>
+      <c r="H40">
+        <v>0.89370000000000005</v>
+      </c>
+      <c r="I40">
+        <v>0.90920000000000001</v>
+      </c>
+      <c r="K40" s="1">
+        <v>9</v>
+      </c>
+      <c r="P40" s="1">
+        <v>9</v>
+      </c>
+      <c r="U40" s="1">
+        <v>9</v>
+      </c>
+      <c r="V40">
+        <v>0.89339999999999997</v>
+      </c>
+      <c r="W40">
+        <v>0.92730000000000001</v>
+      </c>
+      <c r="X40">
+        <v>0.90959999999999996</v>
+      </c>
+      <c r="Z40" s="1">
+        <v>9</v>
+      </c>
+      <c r="AA40">
+        <v>0.93759999999999999</v>
+      </c>
+      <c r="AB40">
+        <v>0.86250000000000004</v>
+      </c>
+      <c r="AC40">
+        <v>0.89759999999999995</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>10</v>
       </c>
       <c r="B41">
-        <v>0.90100000000000002</v>
+        <v>0.86109999999999998</v>
       </c>
       <c r="C41">
-        <v>0.89159999999999995</v>
+        <v>0.88800000000000001</v>
       </c>
       <c r="D41">
-        <v>0.89590000000000003</v>
+        <v>0.87350000000000005</v>
       </c>
       <c r="F41" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G41">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="H41">
+        <v>0.89159999999999995</v>
+      </c>
+      <c r="I41">
+        <v>0.89590000000000003</v>
+      </c>
+      <c r="K41" s="1">
+        <v>10</v>
+      </c>
+      <c r="P41" s="1">
+        <v>10</v>
+      </c>
+      <c r="U41" s="1">
+        <v>10</v>
+      </c>
+      <c r="V41">
+        <v>0.93230000000000002</v>
+      </c>
+      <c r="W41">
+        <v>0.86719999999999997</v>
+      </c>
+      <c r="X41">
+        <v>0.89829999999999999</v>
+      </c>
+      <c r="Z41" s="1">
+        <v>10</v>
+      </c>
+      <c r="AA41">
+        <v>0.93049999999999999</v>
+      </c>
+      <c r="AB41">
+        <v>0.9073</v>
+      </c>
+      <c r="AC41">
+        <v>0.91849999999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B42" s="2">
         <f t="shared" ref="B42:D42" si="3">AVERAGE(B32:B41)</f>
-        <v>0.9087900000000001</v>
+        <v>0.8889800000000001</v>
       </c>
       <c r="C42" s="2">
         <f t="shared" si="3"/>
-        <v>0.88702999999999999</v>
+        <v>0.87880999999999998</v>
       </c>
       <c r="D42" s="2">
         <f t="shared" si="3"/>
-        <v>0.89996999999999994</v>
+        <v>0.88257000000000008</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G42" s="2">
+        <f t="shared" ref="G42:I42" si="4">AVERAGE(G32:G41)</f>
+        <v>0.9087900000000001</v>
+      </c>
+      <c r="H42" s="2">
+        <f t="shared" si="4"/>
+        <v>0.88702999999999999</v>
+      </c>
+      <c r="I42" s="2">
+        <f t="shared" si="4"/>
+        <v>0.89996999999999994</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L42" s="2" t="e">
+        <f t="shared" ref="L42:N42" si="5">AVERAGE(L32:L41)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M42" s="2" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N42" s="2" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q42" s="2" t="e">
+        <f t="shared" ref="Q42:S42" si="6">AVERAGE(Q32:Q41)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R42" s="2" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S42" s="2" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="V42" s="2">
+        <f t="shared" ref="V42:X42" si="7">AVERAGE(V32:V41)</f>
+        <v>0.9020999999999999</v>
+      </c>
+      <c r="W42" s="2">
+        <f t="shared" si="7"/>
+        <v>0.90448000000000006</v>
+      </c>
+      <c r="X42" s="2">
+        <f t="shared" si="7"/>
+        <v>0.90237000000000012</v>
+      </c>
+      <c r="Z42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA42" s="2">
+        <f t="shared" ref="AA42:AC42" si="8">AVERAGE(AA32:AA41)</f>
+        <v>0.91367000000000009</v>
+      </c>
+      <c r="AB42" s="2">
+        <f t="shared" si="8"/>
+        <v>0.89336999999999978</v>
+      </c>
+      <c r="AC42" s="2">
+        <f t="shared" si="8"/>
+        <v>0.90257000000000009</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B43" s="2">
-        <v>818</v>
+      <c r="B43">
+        <v>436</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>11</v>
+      </c>
+      <c r="G43" s="2">
+        <v>818</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L43" s="2"/>
+      <c r="P43" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q43" s="2"/>
+      <c r="U43" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V43" s="2">
+        <v>1716</v>
+      </c>
+      <c r="Z43" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA43" s="2">
+        <v>3237</v>
       </c>
     </row>
   </sheetData>

--- a/ChnSentiCorp/10-fold/result/结果.xlsx
+++ b/ChnSentiCorp/10-fold/result/结果.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="21">
   <si>
     <t>10折交叉</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,6 +86,22 @@
   </si>
   <si>
     <t>maxlen=75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxlen=175</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxlen=200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxlen=225</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxlen=250</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -425,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC43"/>
+  <dimension ref="A1:AW43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G28" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+    <sheetView tabSelected="1" topLeftCell="AE28" workbookViewId="0">
+      <selection activeCell="AO47" sqref="AO47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -784,7 +800,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -798,7 +814,7 @@
         <v>0.91569999999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>2</v>
       </c>
@@ -812,7 +828,7 @@
         <v>0.89139999999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>3</v>
       </c>
@@ -826,7 +842,7 @@
         <v>0.89510000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>4</v>
       </c>
@@ -840,7 +856,7 @@
         <v>0.88890000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>5</v>
       </c>
@@ -854,7 +870,7 @@
         <v>0.90190000000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>6</v>
       </c>
@@ -868,7 +884,7 @@
         <v>0.90029999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>7</v>
       </c>
@@ -882,7 +898,7 @@
         <v>0.87919999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>8</v>
       </c>
@@ -896,7 +912,7 @@
         <v>0.89459999999999995</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>9</v>
       </c>
@@ -910,7 +926,7 @@
         <v>0.89500000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>10</v>
       </c>
@@ -924,7 +940,7 @@
         <v>0.91210000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>4</v>
       </c>
@@ -941,7 +957,7 @@
         <v>0.89742</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -963,8 +979,20 @@
       <c r="AA30" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AF30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK30" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AP30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AU30" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:49" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>2</v>
       </c>
@@ -1019,8 +1047,44 @@
       <c r="AC31" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AF31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW31" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>1</v>
       </c>
@@ -1048,8 +1112,26 @@
       <c r="K32" s="1">
         <v>1</v>
       </c>
+      <c r="L32">
+        <v>0.87380000000000002</v>
+      </c>
+      <c r="M32">
+        <v>0.92410000000000003</v>
+      </c>
+      <c r="N32">
+        <v>0.8972</v>
+      </c>
       <c r="P32" s="1">
         <v>1</v>
+      </c>
+      <c r="Q32">
+        <v>0.91410000000000002</v>
+      </c>
+      <c r="R32">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="S32">
+        <v>0.90639999999999998</v>
       </c>
       <c r="U32" s="1">
         <v>1</v>
@@ -1075,8 +1157,47 @@
       <c r="AC32">
         <v>0.89570000000000005</v>
       </c>
-    </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AE32" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF32">
+        <v>0.8861</v>
+      </c>
+      <c r="AG32">
+        <v>0.90249999999999997</v>
+      </c>
+      <c r="AH32">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="AJ32" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK32">
+        <v>0.91710000000000003</v>
+      </c>
+      <c r="AL32">
+        <v>0.93310000000000004</v>
+      </c>
+      <c r="AM32">
+        <v>0.92490000000000006</v>
+      </c>
+      <c r="AO32" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP32">
+        <v>0.88449999999999995</v>
+      </c>
+      <c r="AQ32">
+        <v>0.90229999999999999</v>
+      </c>
+      <c r="AR32">
+        <v>0.89239999999999997</v>
+      </c>
+      <c r="AT32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>2</v>
       </c>
@@ -1104,8 +1225,26 @@
       <c r="K33" s="1">
         <v>2</v>
       </c>
+      <c r="L33">
+        <v>0.92059999999999997</v>
+      </c>
+      <c r="M33">
+        <v>0.89459999999999995</v>
+      </c>
+      <c r="N33">
+        <v>0.90720000000000001</v>
+      </c>
       <c r="P33" s="1">
         <v>2</v>
+      </c>
+      <c r="Q33">
+        <v>0.91720000000000002</v>
+      </c>
+      <c r="R33">
+        <v>0.90310000000000001</v>
+      </c>
+      <c r="S33">
+        <v>0.90949999999999998</v>
       </c>
       <c r="U33" s="1">
         <v>2</v>
@@ -1131,8 +1270,47 @@
       <c r="AC33">
         <v>0.89700000000000002</v>
       </c>
-    </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AE33" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF33">
+        <v>0.92520000000000002</v>
+      </c>
+      <c r="AG33">
+        <v>0.88480000000000003</v>
+      </c>
+      <c r="AH33">
+        <v>0.90429999999999999</v>
+      </c>
+      <c r="AJ33" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK33">
+        <v>0.93930000000000002</v>
+      </c>
+      <c r="AL33">
+        <v>0.87070000000000003</v>
+      </c>
+      <c r="AM33">
+        <v>0.90349999999999997</v>
+      </c>
+      <c r="AO33" s="1">
+        <v>2</v>
+      </c>
+      <c r="AP33">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="AQ33">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="AR33">
+        <v>0.89</v>
+      </c>
+      <c r="AT33" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>3</v>
       </c>
@@ -1160,8 +1338,26 @@
       <c r="K34" s="1">
         <v>3</v>
       </c>
+      <c r="L34">
+        <v>0.90869999999999995</v>
+      </c>
+      <c r="M34">
+        <v>0.89439999999999997</v>
+      </c>
+      <c r="N34">
+        <v>0.90080000000000005</v>
+      </c>
       <c r="P34" s="1">
         <v>3</v>
+      </c>
+      <c r="Q34">
+        <v>0.87760000000000005</v>
+      </c>
+      <c r="R34">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="S34">
+        <v>0.89239999999999997</v>
       </c>
       <c r="U34" s="1">
         <v>3</v>
@@ -1187,8 +1383,47 @@
       <c r="AC34">
         <v>0.90229999999999999</v>
       </c>
-    </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AE34" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF34">
+        <v>0.9345</v>
+      </c>
+      <c r="AG34">
+        <v>0.88749999999999996</v>
+      </c>
+      <c r="AH34">
+        <v>0.91010000000000002</v>
+      </c>
+      <c r="AJ34" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK34">
+        <v>0.90180000000000005</v>
+      </c>
+      <c r="AL34">
+        <v>0.87509999999999999</v>
+      </c>
+      <c r="AM34">
+        <v>0.88759999999999994</v>
+      </c>
+      <c r="AO34" s="1">
+        <v>3</v>
+      </c>
+      <c r="AP34">
+        <v>0.86780000000000002</v>
+      </c>
+      <c r="AQ34">
+        <v>0.91320000000000001</v>
+      </c>
+      <c r="AR34">
+        <v>0.88990000000000002</v>
+      </c>
+      <c r="AT34" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>4</v>
       </c>
@@ -1216,8 +1451,26 @@
       <c r="K35" s="1">
         <v>4</v>
       </c>
+      <c r="L35">
+        <v>0.93589999999999995</v>
+      </c>
+      <c r="M35">
+        <v>0.94620000000000004</v>
+      </c>
+      <c r="N35">
+        <v>0.94089999999999996</v>
+      </c>
       <c r="P35" s="1">
         <v>4</v>
+      </c>
+      <c r="Q35">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="R35">
+        <v>0.89319999999999999</v>
+      </c>
+      <c r="S35">
+        <v>0.89990000000000003</v>
       </c>
       <c r="U35" s="1">
         <v>4</v>
@@ -1243,8 +1496,47 @@
       <c r="AC35">
         <v>0.89849999999999997</v>
       </c>
-    </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AE35" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF35">
+        <v>0.92459999999999998</v>
+      </c>
+      <c r="AG35">
+        <v>0.89749999999999996</v>
+      </c>
+      <c r="AH35">
+        <v>0.91010000000000002</v>
+      </c>
+      <c r="AJ35" s="1">
+        <v>4</v>
+      </c>
+      <c r="AK35">
+        <v>0.90410000000000001</v>
+      </c>
+      <c r="AL35">
+        <v>0.88290000000000002</v>
+      </c>
+      <c r="AM35">
+        <v>0.89290000000000003</v>
+      </c>
+      <c r="AO35" s="1">
+        <v>4</v>
+      </c>
+      <c r="AP35">
+        <v>0.89649999999999996</v>
+      </c>
+      <c r="AQ35">
+        <v>0.90639999999999998</v>
+      </c>
+      <c r="AR35">
+        <v>0.90129999999999999</v>
+      </c>
+      <c r="AT35" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>5</v>
       </c>
@@ -1272,9 +1564,27 @@
       <c r="K36" s="1">
         <v>5</v>
       </c>
+      <c r="L36">
+        <v>0.91810000000000003</v>
+      </c>
+      <c r="M36">
+        <v>0.87619999999999998</v>
+      </c>
+      <c r="N36">
+        <v>0.89659999999999995</v>
+      </c>
       <c r="P36" s="1">
         <v>5</v>
       </c>
+      <c r="Q36">
+        <v>0.89170000000000005</v>
+      </c>
+      <c r="R36">
+        <v>0.87719999999999998</v>
+      </c>
+      <c r="S36">
+        <v>0.88380000000000003</v>
+      </c>
       <c r="U36" s="1">
         <v>5</v>
       </c>
@@ -1299,8 +1609,47 @@
       <c r="AC36">
         <v>0.89780000000000004</v>
       </c>
-    </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AE36" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF36">
+        <v>0.89610000000000001</v>
+      </c>
+      <c r="AG36">
+        <v>0.90249999999999997</v>
+      </c>
+      <c r="AH36">
+        <v>0.89870000000000005</v>
+      </c>
+      <c r="AJ36" s="1">
+        <v>5</v>
+      </c>
+      <c r="AK36">
+        <v>0.9052</v>
+      </c>
+      <c r="AL36">
+        <v>0.88249999999999995</v>
+      </c>
+      <c r="AM36">
+        <v>0.89329999999999998</v>
+      </c>
+      <c r="AO36" s="1">
+        <v>5</v>
+      </c>
+      <c r="AP36">
+        <v>0.89580000000000004</v>
+      </c>
+      <c r="AQ36">
+        <v>0.93089999999999995</v>
+      </c>
+      <c r="AR36">
+        <v>0.91259999999999997</v>
+      </c>
+      <c r="AT36" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>6</v>
       </c>
@@ -1328,9 +1677,27 @@
       <c r="K37" s="1">
         <v>6</v>
       </c>
+      <c r="L37">
+        <v>0.88360000000000005</v>
+      </c>
+      <c r="M37">
+        <v>0.91439999999999999</v>
+      </c>
+      <c r="N37">
+        <v>0.89849999999999997</v>
+      </c>
       <c r="P37" s="1">
         <v>6</v>
       </c>
+      <c r="Q37">
+        <v>0.88949999999999996</v>
+      </c>
+      <c r="R37">
+        <v>0.88009999999999999</v>
+      </c>
+      <c r="S37">
+        <v>0.8841</v>
+      </c>
       <c r="U37" s="1">
         <v>6</v>
       </c>
@@ -1355,8 +1722,47 @@
       <c r="AC37">
         <v>0.90510000000000002</v>
       </c>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AE37" s="1">
+        <v>6</v>
+      </c>
+      <c r="AF37">
+        <v>0.9325</v>
+      </c>
+      <c r="AG37">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="AH37">
+        <v>0.87819999999999998</v>
+      </c>
+      <c r="AJ37" s="1">
+        <v>6</v>
+      </c>
+      <c r="AK37">
+        <v>0.91169999999999995</v>
+      </c>
+      <c r="AL37">
+        <v>0.87139999999999995</v>
+      </c>
+      <c r="AM37">
+        <v>0.89070000000000005</v>
+      </c>
+      <c r="AO37" s="1">
+        <v>6</v>
+      </c>
+      <c r="AP37">
+        <v>0.88680000000000003</v>
+      </c>
+      <c r="AQ37">
+        <v>0.86519999999999997</v>
+      </c>
+      <c r="AR37">
+        <v>0.87539999999999996</v>
+      </c>
+      <c r="AT37" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>7</v>
       </c>
@@ -1384,9 +1790,27 @@
       <c r="K38" s="1">
         <v>7</v>
       </c>
+      <c r="L38">
+        <v>0.91859999999999997</v>
+      </c>
+      <c r="M38">
+        <v>0.8669</v>
+      </c>
+      <c r="N38">
+        <v>0.89149999999999996</v>
+      </c>
       <c r="P38" s="1">
         <v>7</v>
       </c>
+      <c r="Q38">
+        <v>0.91169999999999995</v>
+      </c>
+      <c r="R38">
+        <v>0.86639999999999995</v>
+      </c>
+      <c r="S38">
+        <v>0.88780000000000003</v>
+      </c>
       <c r="U38" s="1">
         <v>7</v>
       </c>
@@ -1411,8 +1835,47 @@
       <c r="AC38">
         <v>0.90510000000000002</v>
       </c>
-    </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AE38" s="1">
+        <v>7</v>
+      </c>
+      <c r="AF38">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="AG38">
+        <v>0.91769999999999996</v>
+      </c>
+      <c r="AH38">
+        <v>0.92759999999999998</v>
+      </c>
+      <c r="AJ38" s="1">
+        <v>7</v>
+      </c>
+      <c r="AK38">
+        <v>0.91959999999999997</v>
+      </c>
+      <c r="AL38">
+        <v>0.92290000000000005</v>
+      </c>
+      <c r="AM38">
+        <v>0.9204</v>
+      </c>
+      <c r="AO38" s="1">
+        <v>7</v>
+      </c>
+      <c r="AP38">
+        <v>0.91749999999999998</v>
+      </c>
+      <c r="AQ38">
+        <v>0.9153</v>
+      </c>
+      <c r="AR38">
+        <v>0.91620000000000001</v>
+      </c>
+      <c r="AT38" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>8</v>
       </c>
@@ -1440,9 +1903,27 @@
       <c r="K39" s="1">
         <v>8</v>
       </c>
+      <c r="L39">
+        <v>0.89870000000000005</v>
+      </c>
+      <c r="M39">
+        <v>0.93</v>
+      </c>
+      <c r="N39">
+        <v>0.91379999999999995</v>
+      </c>
       <c r="P39" s="1">
         <v>8</v>
       </c>
+      <c r="Q39">
+        <v>0.92369999999999997</v>
+      </c>
+      <c r="R39">
+        <v>0.90359999999999996</v>
+      </c>
+      <c r="S39">
+        <v>0.91290000000000004</v>
+      </c>
       <c r="U39" s="1">
         <v>8</v>
       </c>
@@ -1467,8 +1948,47 @@
       <c r="AC39">
         <v>0.90810000000000002</v>
       </c>
-    </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AE39" s="1">
+        <v>8</v>
+      </c>
+      <c r="AF39">
+        <v>0.88280000000000003</v>
+      </c>
+      <c r="AG39">
+        <v>0.88480000000000003</v>
+      </c>
+      <c r="AH39">
+        <v>0.88229999999999997</v>
+      </c>
+      <c r="AJ39" s="1">
+        <v>8</v>
+      </c>
+      <c r="AK39">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="AL39">
+        <v>0.88680000000000003</v>
+      </c>
+      <c r="AM39">
+        <v>0.89229999999999998</v>
+      </c>
+      <c r="AO39" s="1">
+        <v>8</v>
+      </c>
+      <c r="AP39">
+        <v>0.90920000000000001</v>
+      </c>
+      <c r="AQ39">
+        <v>0.90180000000000005</v>
+      </c>
+      <c r="AR39">
+        <v>0.90510000000000002</v>
+      </c>
+      <c r="AT39" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>9</v>
       </c>
@@ -1496,9 +2016,27 @@
       <c r="K40" s="1">
         <v>9</v>
       </c>
+      <c r="L40">
+        <v>0.92059999999999997</v>
+      </c>
+      <c r="M40">
+        <v>0.90890000000000004</v>
+      </c>
+      <c r="N40">
+        <v>0.9143</v>
+      </c>
       <c r="P40" s="1">
         <v>9</v>
       </c>
+      <c r="Q40">
+        <v>0.95</v>
+      </c>
+      <c r="R40">
+        <v>0.91710000000000003</v>
+      </c>
+      <c r="S40">
+        <v>0.93269999999999997</v>
+      </c>
       <c r="U40" s="1">
         <v>9</v>
       </c>
@@ -1523,8 +2061,47 @@
       <c r="AC40">
         <v>0.89759999999999995</v>
       </c>
-    </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AE40" s="1">
+        <v>9</v>
+      </c>
+      <c r="AF40">
+        <v>0.86919999999999997</v>
+      </c>
+      <c r="AG40">
+        <v>0.94940000000000002</v>
+      </c>
+      <c r="AH40">
+        <v>0.90680000000000005</v>
+      </c>
+      <c r="AJ40" s="1">
+        <v>9</v>
+      </c>
+      <c r="AK40">
+        <v>0.87050000000000005</v>
+      </c>
+      <c r="AL40">
+        <v>0.95860000000000001</v>
+      </c>
+      <c r="AM40">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="AO40" s="1">
+        <v>9</v>
+      </c>
+      <c r="AP40">
+        <v>0.88880000000000003</v>
+      </c>
+      <c r="AQ40">
+        <v>0.91149999999999998</v>
+      </c>
+      <c r="AR40">
+        <v>0.89980000000000004</v>
+      </c>
+      <c r="AT40" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>10</v>
       </c>
@@ -1552,9 +2129,27 @@
       <c r="K41" s="1">
         <v>10</v>
       </c>
+      <c r="L41">
+        <v>0.89659999999999995</v>
+      </c>
+      <c r="M41">
+        <v>0.91579999999999995</v>
+      </c>
+      <c r="N41">
+        <v>0.90580000000000005</v>
+      </c>
       <c r="P41" s="1">
         <v>10</v>
       </c>
+      <c r="Q41">
+        <v>0.90890000000000004</v>
+      </c>
+      <c r="R41">
+        <v>0.9022</v>
+      </c>
+      <c r="S41">
+        <v>0.90480000000000005</v>
+      </c>
       <c r="U41" s="1">
         <v>10</v>
       </c>
@@ -1579,8 +2174,47 @@
       <c r="AC41">
         <v>0.91849999999999998</v>
       </c>
-    </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AE41" s="1">
+        <v>10</v>
+      </c>
+      <c r="AF41">
+        <v>0.90449999999999997</v>
+      </c>
+      <c r="AG41">
+        <v>0.91090000000000004</v>
+      </c>
+      <c r="AH41">
+        <v>0.90710000000000002</v>
+      </c>
+      <c r="AJ41" s="1">
+        <v>10</v>
+      </c>
+      <c r="AK41">
+        <v>0.93289999999999995</v>
+      </c>
+      <c r="AL41">
+        <v>0.87129999999999996</v>
+      </c>
+      <c r="AM41">
+        <v>0.90069999999999995</v>
+      </c>
+      <c r="AO41" s="1">
+        <v>10</v>
+      </c>
+      <c r="AP41">
+        <v>0.89390000000000003</v>
+      </c>
+      <c r="AQ41">
+        <v>0.88849999999999996</v>
+      </c>
+      <c r="AR41">
+        <v>0.89059999999999995</v>
+      </c>
+      <c r="AT41" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>4</v>
       </c>
@@ -1614,32 +2248,32 @@
       <c r="K42" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L42" s="2" t="e">
+      <c r="L42" s="2">
         <f t="shared" ref="L42:N42" si="5">AVERAGE(L32:L41)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M42" s="2" t="e">
+        <v>0.90751999999999988</v>
+      </c>
+      <c r="M42" s="2">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N42" s="2" t="e">
+        <v>0.90715000000000001</v>
+      </c>
+      <c r="N42" s="2">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>0.90665999999999991</v>
       </c>
       <c r="P42" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="Q42" s="2" t="e">
+      <c r="Q42" s="2">
         <f t="shared" ref="Q42:S42" si="6">AVERAGE(Q32:Q41)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R42" s="2" t="e">
+        <v>0.90914000000000006</v>
+      </c>
+      <c r="R42" s="2">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S42" s="2" t="e">
+        <v>0.89509000000000005</v>
+      </c>
+      <c r="S42" s="2">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>0.90143000000000006</v>
       </c>
       <c r="U42" s="1" t="s">
         <v>4</v>
@@ -1671,12 +2305,72 @@
         <f t="shared" si="8"/>
         <v>0.90257000000000009</v>
       </c>
-    </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AE42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF42" s="2">
+        <f t="shared" ref="AF42:AH42" si="9">AVERAGE(AF32:AF41)</f>
+        <v>0.90944999999999998</v>
+      </c>
+      <c r="AG42" s="2">
+        <f t="shared" si="9"/>
+        <v>0.89685999999999999</v>
+      </c>
+      <c r="AH42" s="2">
+        <f t="shared" si="9"/>
+        <v>0.90181999999999984</v>
+      </c>
+      <c r="AJ42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK42" s="2">
+        <f t="shared" ref="AK42:AM42" si="10">AVERAGE(AK32:AK41)</f>
+        <v>0.91012000000000004</v>
+      </c>
+      <c r="AL42" s="2">
+        <f t="shared" si="10"/>
+        <v>0.89552999999999994</v>
+      </c>
+      <c r="AM42" s="2">
+        <f t="shared" si="10"/>
+        <v>0.90183000000000002</v>
+      </c>
+      <c r="AO42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP42" s="2">
+        <f t="shared" ref="AP42:AR42" si="11">AVERAGE(AP32:AP41)</f>
+        <v>0.89268000000000003</v>
+      </c>
+      <c r="AQ42" s="2">
+        <f t="shared" si="11"/>
+        <v>0.90341000000000005</v>
+      </c>
+      <c r="AR42" s="2">
+        <f t="shared" si="11"/>
+        <v>0.89732999999999996</v>
+      </c>
+      <c r="AT42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AU42" s="2" t="e">
+        <f t="shared" ref="AU42:AW42" si="12">AVERAGE(AU32:AU41)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AV42" s="2" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW42" s="2" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="43" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="2">
         <v>436</v>
       </c>
       <c r="F43" s="3" t="s">
@@ -1688,11 +2382,15 @@
       <c r="K43" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L43" s="2"/>
+      <c r="L43" s="2">
+        <v>1337</v>
+      </c>
       <c r="P43" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q43" s="2"/>
+      <c r="Q43" s="2">
+        <v>1487</v>
+      </c>
       <c r="U43" s="3" t="s">
         <v>11</v>
       </c>
@@ -1705,6 +2403,28 @@
       <c r="AA43" s="2">
         <v>3237</v>
       </c>
+      <c r="AE43" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF43" s="2">
+        <v>3411</v>
+      </c>
+      <c r="AJ43" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK43" s="2">
+        <v>4578</v>
+      </c>
+      <c r="AO43" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AP43" s="2">
+        <v>13696</v>
+      </c>
+      <c r="AT43" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AU43" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/ChnSentiCorp/10-fold/result/结果.xlsx
+++ b/ChnSentiCorp/10-fold/result/结果.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="30">
   <si>
     <t>10折交叉</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,6 +102,42 @@
   </si>
   <si>
     <t>maxlen=250</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxlen=75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25维词向量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50维词向量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75维词向量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100维词向量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>125维词向量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150维词向量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>175维词向量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200维词向量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -441,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AW43"/>
+  <dimension ref="A1:AW75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE28" workbookViewId="0">
-      <selection activeCell="AO47" sqref="AO47"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1196,6 +1232,15 @@
       <c r="AT32" s="1">
         <v>1</v>
       </c>
+      <c r="AU32">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="AV32">
+        <v>0.85960000000000003</v>
+      </c>
+      <c r="AW32">
+        <v>0.8891</v>
+      </c>
     </row>
     <row r="33" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
@@ -1309,6 +1354,15 @@
       <c r="AT33" s="1">
         <v>2</v>
       </c>
+      <c r="AU33">
+        <v>0.88470000000000004</v>
+      </c>
+      <c r="AV33">
+        <v>0.87760000000000005</v>
+      </c>
+      <c r="AW33">
+        <v>0.88070000000000004</v>
+      </c>
     </row>
     <row r="34" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
@@ -1422,6 +1476,15 @@
       <c r="AT34" s="1">
         <v>3</v>
       </c>
+      <c r="AU34">
+        <v>0.91090000000000004</v>
+      </c>
+      <c r="AV34">
+        <v>0.91069999999999995</v>
+      </c>
+      <c r="AW34">
+        <v>0.90969999999999995</v>
+      </c>
     </row>
     <row r="35" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
@@ -1534,6 +1597,15 @@
       </c>
       <c r="AT35" s="1">
         <v>4</v>
+      </c>
+      <c r="AU35">
+        <v>0.877</v>
+      </c>
+      <c r="AV35">
+        <v>0.89349999999999996</v>
+      </c>
+      <c r="AW35">
+        <v>0.88439999999999996</v>
       </c>
     </row>
     <row r="36" spans="1:49" x14ac:dyDescent="0.2">
@@ -1648,6 +1720,15 @@
       <c r="AT36" s="1">
         <v>5</v>
       </c>
+      <c r="AU36">
+        <v>0.90280000000000005</v>
+      </c>
+      <c r="AV36">
+        <v>0.8861</v>
+      </c>
+      <c r="AW36">
+        <v>0.89359999999999995</v>
+      </c>
     </row>
     <row r="37" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
@@ -1761,6 +1842,15 @@
       <c r="AT37" s="1">
         <v>6</v>
       </c>
+      <c r="AU37">
+        <v>0.93440000000000001</v>
+      </c>
+      <c r="AV37">
+        <v>0.88870000000000005</v>
+      </c>
+      <c r="AW37">
+        <v>0.91069999999999995</v>
+      </c>
     </row>
     <row r="38" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
@@ -1874,6 +1964,15 @@
       <c r="AT38" s="1">
         <v>7</v>
       </c>
+      <c r="AU38">
+        <v>0.92490000000000006</v>
+      </c>
+      <c r="AV38">
+        <v>0.9032</v>
+      </c>
+      <c r="AW38">
+        <v>0.91269999999999996</v>
+      </c>
     </row>
     <row r="39" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
@@ -1987,6 +2086,15 @@
       <c r="AT39" s="1">
         <v>8</v>
       </c>
+      <c r="AU39">
+        <v>0.91159999999999997</v>
+      </c>
+      <c r="AV39">
+        <v>0.92569999999999997</v>
+      </c>
+      <c r="AW39">
+        <v>0.91830000000000001</v>
+      </c>
     </row>
     <row r="40" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
@@ -2100,6 +2208,15 @@
       <c r="AT40" s="1">
         <v>9</v>
       </c>
+      <c r="AU40">
+        <v>0.9</v>
+      </c>
+      <c r="AV40">
+        <v>0.88529999999999998</v>
+      </c>
+      <c r="AW40">
+        <v>0.89219999999999999</v>
+      </c>
     </row>
     <row r="41" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
@@ -2213,6 +2330,15 @@
       <c r="AT41" s="1">
         <v>10</v>
       </c>
+      <c r="AU41">
+        <v>0.93320000000000003</v>
+      </c>
+      <c r="AV41">
+        <v>0.88829999999999998</v>
+      </c>
+      <c r="AW41">
+        <v>0.91010000000000002</v>
+      </c>
     </row>
     <row r="42" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
@@ -2353,17 +2479,17 @@
       <c r="AT42" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AU42" s="2" t="e">
+      <c r="AU42" s="2">
         <f t="shared" ref="AU42:AW42" si="12">AVERAGE(AU32:AU41)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AV42" s="2" t="e">
+        <v>0.91005000000000003</v>
+      </c>
+      <c r="AV42" s="2">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AW42" s="2" t="e">
+        <v>0.89186999999999994</v>
+      </c>
+      <c r="AW42" s="2">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
+        <v>0.90015000000000001</v>
       </c>
     </row>
     <row r="43" spans="1:49" x14ac:dyDescent="0.2">
@@ -2424,7 +2550,838 @@
       <c r="AT43" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AU43" s="2"/>
+      <c r="AU43" s="2">
+        <v>12516</v>
+      </c>
+    </row>
+    <row r="45" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="L45" s="2"/>
+    </row>
+    <row r="46" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+    </row>
+    <row r="47" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>21</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q47" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="V47" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA47" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF47" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK47" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="B48" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q48" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R48" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V48" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="W48" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA48" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB48" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF48" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG48" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK48" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL48" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM48" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>1</v>
+      </c>
+      <c r="B49">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="C49">
+        <v>0.88129999999999997</v>
+      </c>
+      <c r="D49">
+        <v>0.89929999999999999</v>
+      </c>
+      <c r="F49" s="1">
+        <v>1</v>
+      </c>
+      <c r="K49" s="1">
+        <v>1</v>
+      </c>
+      <c r="L49">
+        <v>0.91620000000000001</v>
+      </c>
+      <c r="M49">
+        <v>0.89739999999999998</v>
+      </c>
+      <c r="N49">
+        <v>0.90659999999999996</v>
+      </c>
+      <c r="P49" s="1">
+        <v>1</v>
+      </c>
+      <c r="U49" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z49" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE49" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ49" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>2</v>
+      </c>
+      <c r="B50">
+        <v>0.89439999999999997</v>
+      </c>
+      <c r="C50">
+        <v>0.92490000000000006</v>
+      </c>
+      <c r="D50">
+        <v>0.90890000000000004</v>
+      </c>
+      <c r="F50" s="1">
+        <v>2</v>
+      </c>
+      <c r="K50" s="1">
+        <v>2</v>
+      </c>
+      <c r="L50">
+        <v>0.9415</v>
+      </c>
+      <c r="M50">
+        <v>0.85680000000000001</v>
+      </c>
+      <c r="N50">
+        <v>0.89680000000000004</v>
+      </c>
+      <c r="P50" s="1">
+        <v>2</v>
+      </c>
+      <c r="U50" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z50" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE50" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ50" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>3</v>
+      </c>
+      <c r="B51">
+        <v>0.91549999999999998</v>
+      </c>
+      <c r="C51">
+        <v>0.90439999999999998</v>
+      </c>
+      <c r="D51">
+        <v>0.90959999999999996</v>
+      </c>
+      <c r="F51" s="1">
+        <v>3</v>
+      </c>
+      <c r="K51" s="1">
+        <v>3</v>
+      </c>
+      <c r="L51">
+        <v>0.93169999999999997</v>
+      </c>
+      <c r="M51">
+        <v>0.88819999999999999</v>
+      </c>
+      <c r="N51">
+        <v>0.9093</v>
+      </c>
+      <c r="P51" s="1">
+        <v>3</v>
+      </c>
+      <c r="U51" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z51" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE51" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ51" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>4</v>
+      </c>
+      <c r="B52">
+        <v>0.94310000000000005</v>
+      </c>
+      <c r="C52">
+        <v>0.95069999999999999</v>
+      </c>
+      <c r="D52">
+        <v>0.94669999999999999</v>
+      </c>
+      <c r="F52" s="1">
+        <v>4</v>
+      </c>
+      <c r="K52" s="1">
+        <v>4</v>
+      </c>
+      <c r="L52">
+        <v>0.94</v>
+      </c>
+      <c r="M52">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="N52">
+        <v>0.93140000000000001</v>
+      </c>
+      <c r="P52" s="1">
+        <v>4</v>
+      </c>
+      <c r="U52" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z52" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE52" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ52" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>5</v>
+      </c>
+      <c r="B53">
+        <v>0.89549999999999996</v>
+      </c>
+      <c r="C53">
+        <v>0.90859999999999996</v>
+      </c>
+      <c r="D53">
+        <v>0.90190000000000003</v>
+      </c>
+      <c r="F53" s="1">
+        <v>5</v>
+      </c>
+      <c r="K53" s="1">
+        <v>5</v>
+      </c>
+      <c r="L53">
+        <v>0.90480000000000005</v>
+      </c>
+      <c r="M53">
+        <v>0.88849999999999996</v>
+      </c>
+      <c r="N53">
+        <v>0.89649999999999996</v>
+      </c>
+      <c r="P53" s="1">
+        <v>5</v>
+      </c>
+      <c r="U53" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z53" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE53" s="1">
+        <v>5</v>
+      </c>
+      <c r="AJ53" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>6</v>
+      </c>
+      <c r="B54">
+        <v>0.86960000000000004</v>
+      </c>
+      <c r="C54">
+        <v>0.92530000000000001</v>
+      </c>
+      <c r="D54">
+        <v>0.8962</v>
+      </c>
+      <c r="F54" s="1">
+        <v>6</v>
+      </c>
+      <c r="K54" s="1">
+        <v>6</v>
+      </c>
+      <c r="L54">
+        <v>0.89949999999999997</v>
+      </c>
+      <c r="M54">
+        <v>0.90939999999999999</v>
+      </c>
+      <c r="N54">
+        <v>0.90410000000000001</v>
+      </c>
+      <c r="P54" s="1">
+        <v>6</v>
+      </c>
+      <c r="U54" s="1">
+        <v>6</v>
+      </c>
+      <c r="Z54" s="1">
+        <v>6</v>
+      </c>
+      <c r="AE54" s="1">
+        <v>6</v>
+      </c>
+      <c r="AJ54" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>7</v>
+      </c>
+      <c r="B55">
+        <v>0.93169999999999997</v>
+      </c>
+      <c r="C55">
+        <v>0.86319999999999997</v>
+      </c>
+      <c r="D55">
+        <v>0.89539999999999997</v>
+      </c>
+      <c r="F55" s="1">
+        <v>7</v>
+      </c>
+      <c r="K55" s="1">
+        <v>7</v>
+      </c>
+      <c r="L55">
+        <v>0.89380000000000004</v>
+      </c>
+      <c r="M55">
+        <v>0.88580000000000003</v>
+      </c>
+      <c r="N55">
+        <v>0.88949999999999996</v>
+      </c>
+      <c r="P55" s="1">
+        <v>7</v>
+      </c>
+      <c r="U55" s="1">
+        <v>7</v>
+      </c>
+      <c r="Z55" s="1">
+        <v>7</v>
+      </c>
+      <c r="AE55" s="1">
+        <v>7</v>
+      </c>
+      <c r="AJ55" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>8</v>
+      </c>
+      <c r="B56">
+        <v>0.91820000000000002</v>
+      </c>
+      <c r="C56">
+        <v>0.89780000000000004</v>
+      </c>
+      <c r="D56">
+        <v>0.90739999999999998</v>
+      </c>
+      <c r="F56" s="1">
+        <v>8</v>
+      </c>
+      <c r="K56" s="1">
+        <v>8</v>
+      </c>
+      <c r="L56">
+        <v>0.88870000000000005</v>
+      </c>
+      <c r="M56">
+        <v>0.91810000000000003</v>
+      </c>
+      <c r="N56">
+        <v>0.90280000000000005</v>
+      </c>
+      <c r="P56" s="1">
+        <v>8</v>
+      </c>
+      <c r="U56" s="1">
+        <v>8</v>
+      </c>
+      <c r="Z56" s="1">
+        <v>8</v>
+      </c>
+      <c r="AE56" s="1">
+        <v>8</v>
+      </c>
+      <c r="AJ56" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>9</v>
+      </c>
+      <c r="B57">
+        <v>0.89349999999999996</v>
+      </c>
+      <c r="C57">
+        <v>0.90820000000000001</v>
+      </c>
+      <c r="D57">
+        <v>0.90049999999999997</v>
+      </c>
+      <c r="F57" s="1">
+        <v>9</v>
+      </c>
+      <c r="K57" s="1">
+        <v>9</v>
+      </c>
+      <c r="L57">
+        <v>0.91220000000000001</v>
+      </c>
+      <c r="M57">
+        <v>0.89390000000000003</v>
+      </c>
+      <c r="N57">
+        <v>0.90259999999999996</v>
+      </c>
+      <c r="P57" s="1">
+        <v>9</v>
+      </c>
+      <c r="U57" s="1">
+        <v>9</v>
+      </c>
+      <c r="Z57" s="1">
+        <v>9</v>
+      </c>
+      <c r="AE57" s="1">
+        <v>9</v>
+      </c>
+      <c r="AJ57" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>10</v>
+      </c>
+      <c r="B58">
+        <v>0.93440000000000001</v>
+      </c>
+      <c r="C58">
+        <v>0.89980000000000004</v>
+      </c>
+      <c r="D58">
+        <v>0.91649999999999998</v>
+      </c>
+      <c r="F58" s="1">
+        <v>10</v>
+      </c>
+      <c r="K58" s="1">
+        <v>10</v>
+      </c>
+      <c r="L58">
+        <v>0.91159999999999997</v>
+      </c>
+      <c r="M58">
+        <v>0.89570000000000005</v>
+      </c>
+      <c r="N58">
+        <v>0.90339999999999998</v>
+      </c>
+      <c r="P58" s="1">
+        <v>10</v>
+      </c>
+      <c r="U58" s="1">
+        <v>10</v>
+      </c>
+      <c r="Z58" s="1">
+        <v>10</v>
+      </c>
+      <c r="AE58" s="1">
+        <v>10</v>
+      </c>
+      <c r="AJ58" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" s="2">
+        <f t="shared" ref="B59:D59" si="13">AVERAGE(B49:B58)</f>
+        <v>0.91149000000000002</v>
+      </c>
+      <c r="C59" s="2">
+        <f t="shared" si="13"/>
+        <v>0.90642000000000011</v>
+      </c>
+      <c r="D59" s="2">
+        <f t="shared" si="13"/>
+        <v>0.90823999999999994</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G59" s="2" t="e">
+        <f t="shared" ref="G59:I59" si="14">AVERAGE(G49:G58)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H59" s="2" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I59" s="2" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L59" s="2">
+        <f t="shared" ref="L59:N59" si="15">AVERAGE(L49:L58)</f>
+        <v>0.91399999999999992</v>
+      </c>
+      <c r="M59" s="2">
+        <f t="shared" si="15"/>
+        <v>0.89577999999999991</v>
+      </c>
+      <c r="N59" s="2">
+        <f t="shared" si="15"/>
+        <v>0.90429999999999988</v>
+      </c>
+      <c r="P59" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q59" s="2" t="e">
+        <f t="shared" ref="Q59:S59" si="16">AVERAGE(Q49:Q58)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R59" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S59" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U59" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="V59" s="2" t="e">
+        <f t="shared" ref="V59:X59" si="17">AVERAGE(V49:V58)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W59" s="2" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X59" s="2" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z59" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA59" s="2" t="e">
+        <f t="shared" ref="AA59:AC59" si="18">AVERAGE(AA49:AA58)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB59" s="2" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC59" s="2" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE59" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF59" s="2" t="e">
+        <f t="shared" ref="AF59:AH59" si="19">AVERAGE(AF49:AF58)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG59" s="2" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH59" s="2" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ59" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK59" s="2" t="e">
+        <f t="shared" ref="AK59:AM59" si="20">AVERAGE(AK49:AK58)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL59" s="2" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM59" s="2" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="60" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A60" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="F60" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" s="2"/>
+      <c r="K60" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L60" s="2"/>
+      <c r="P60" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q60" s="2"/>
+      <c r="U60" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V60" s="2"/>
+      <c r="Z60" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA60" s="2"/>
+      <c r="AE60" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF60" s="2"/>
+      <c r="AJ60" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK60" s="2"/>
+    </row>
+    <row r="62" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>16</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="63" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="B63" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>0.90649999999999997</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>2</v>
+      </c>
+      <c r="D65">
+        <v>0.91090000000000004</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>3</v>
+      </c>
+      <c r="D66">
+        <v>0.9173</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>4</v>
+      </c>
+      <c r="D67">
+        <v>0.93979999999999997</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>5</v>
+      </c>
+      <c r="D68">
+        <v>0.89119999999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>6</v>
+      </c>
+      <c r="D69">
+        <v>0.90939999999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>7</v>
+      </c>
+      <c r="D70">
+        <v>0.88849999999999996</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>8</v>
+      </c>
+      <c r="D71">
+        <v>0.9012</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>9</v>
+      </c>
+      <c r="D72">
+        <v>0.90739999999999998</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>10</v>
+      </c>
+      <c r="D73">
+        <v>0.89829999999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B74" s="2" t="e">
+        <f t="shared" ref="B74:D74" si="21">AVERAGE(B64:B73)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C74" s="2" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D74" s="2">
+        <f t="shared" si="21"/>
+        <v>0.90705000000000013</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B75" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
